--- a/Back_end_python/db/tics.xlsx
+++ b/Back_end_python/db/tics.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onleonel\Escritorio\geoportal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenin\Documents\GitHub\Proyecto_python\Back_end_python\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F520C5-7DED-49BE-8547-0EE641B5B6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9F5084-440E-48E9-953A-116198F3A17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="719" xr2:uid="{64AA4D7F-CF1A-4EC7-8C98-80366C114513}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="719" xr2:uid="{64AA4D7F-CF1A-4EC7-8C98-80366C114513}"/>
   </bookViews>
   <sheets>
     <sheet name="TICs" sheetId="26" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="27" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>Censo de Población y Vivienda El Salvador 2024</t>
   </si>
@@ -126,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,13 +621,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF39B40-386A-4DC6-B645-684581DEDFBA}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -636,7 +637,439 @@
     <col min="9" max="9" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="63.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7">
+        <v>25928</v>
+      </c>
+      <c r="C3" s="7">
+        <v>64296</v>
+      </c>
+      <c r="D3" s="7">
+        <v>49158</v>
+      </c>
+      <c r="E3" s="7">
+        <v>230144</v>
+      </c>
+      <c r="F3" s="7">
+        <v>36915</v>
+      </c>
+      <c r="G3" s="7">
+        <v>234440</v>
+      </c>
+      <c r="H3" s="7">
+        <v>332072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13">
+        <v>75616</v>
+      </c>
+      <c r="C4" s="13">
+        <v>130909</v>
+      </c>
+      <c r="D4" s="13">
+        <v>92578</v>
+      </c>
+      <c r="E4" s="13">
+        <v>411098</v>
+      </c>
+      <c r="F4" s="13">
+        <v>57272</v>
+      </c>
+      <c r="G4" s="13">
+        <v>425240</v>
+      </c>
+      <c r="H4" s="13">
+        <v>524220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
+      <c r="A5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13">
+        <v>44334</v>
+      </c>
+      <c r="C5" s="13">
+        <v>94639</v>
+      </c>
+      <c r="D5" s="13">
+        <v>71023</v>
+      </c>
+      <c r="E5" s="13">
+        <v>328846</v>
+      </c>
+      <c r="F5" s="13">
+        <v>41908</v>
+      </c>
+      <c r="G5" s="13">
+        <v>334808</v>
+      </c>
+      <c r="H5" s="13">
+        <v>448543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13">
+        <v>14358</v>
+      </c>
+      <c r="C6" s="13">
+        <v>35902</v>
+      </c>
+      <c r="D6" s="13">
+        <v>27788</v>
+      </c>
+      <c r="E6" s="13">
+        <v>134519</v>
+      </c>
+      <c r="F6" s="13">
+        <v>17836</v>
+      </c>
+      <c r="G6" s="13">
+        <v>137143</v>
+      </c>
+      <c r="H6" s="13">
+        <v>177762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
+      <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="13">
+        <v>159917</v>
+      </c>
+      <c r="C7" s="13">
+        <v>233833</v>
+      </c>
+      <c r="D7" s="13">
+        <v>159069</v>
+      </c>
+      <c r="E7" s="13">
+        <v>585428</v>
+      </c>
+      <c r="F7" s="13">
+        <v>83593</v>
+      </c>
+      <c r="G7" s="13">
+        <v>595736</v>
+      </c>
+      <c r="H7" s="13">
+        <v>719759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
+      <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13">
+        <v>410177</v>
+      </c>
+      <c r="C8" s="13">
+        <v>527563</v>
+      </c>
+      <c r="D8" s="13">
+        <v>330729</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1253294</v>
+      </c>
+      <c r="F8" s="13">
+        <v>190394</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1279819</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1494865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75">
+      <c r="A9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="13">
+        <v>24766</v>
+      </c>
+      <c r="C9" s="13">
+        <v>52624</v>
+      </c>
+      <c r="D9" s="13">
+        <v>38377</v>
+      </c>
+      <c r="E9" s="13">
+        <v>173446</v>
+      </c>
+      <c r="F9" s="13">
+        <v>23375</v>
+      </c>
+      <c r="G9" s="13">
+        <v>175497</v>
+      </c>
+      <c r="H9" s="13">
+        <v>234670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="13">
+        <v>29584</v>
+      </c>
+      <c r="C10" s="13">
+        <v>66744</v>
+      </c>
+      <c r="D10" s="13">
+        <v>48315</v>
+      </c>
+      <c r="E10" s="13">
+        <v>226187</v>
+      </c>
+      <c r="F10" s="13">
+        <v>26747</v>
+      </c>
+      <c r="G10" s="13">
+        <v>234062</v>
+      </c>
+      <c r="H10" s="13">
+        <v>303493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="13">
+        <v>8875</v>
+      </c>
+      <c r="C11" s="13">
+        <v>25486</v>
+      </c>
+      <c r="D11" s="13">
+        <v>21486</v>
+      </c>
+      <c r="E11" s="13">
+        <v>93939</v>
+      </c>
+      <c r="F11" s="13">
+        <v>12121</v>
+      </c>
+      <c r="G11" s="13">
+        <v>98429</v>
+      </c>
+      <c r="H11" s="13">
+        <v>135667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75">
+      <c r="A12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="13">
+        <v>13516</v>
+      </c>
+      <c r="C12" s="13">
+        <v>33821</v>
+      </c>
+      <c r="D12" s="13">
+        <v>26704</v>
+      </c>
+      <c r="E12" s="13">
+        <v>112997</v>
+      </c>
+      <c r="F12" s="13">
+        <v>13127</v>
+      </c>
+      <c r="G12" s="13">
+        <v>118854</v>
+      </c>
+      <c r="H12" s="13">
+        <v>152135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75">
+      <c r="A13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13">
+        <v>26785</v>
+      </c>
+      <c r="C13" s="13">
+        <v>68345</v>
+      </c>
+      <c r="D13" s="13">
+        <v>55638</v>
+      </c>
+      <c r="E13" s="13">
+        <v>228585</v>
+      </c>
+      <c r="F13" s="13">
+        <v>36474</v>
+      </c>
+      <c r="G13" s="13">
+        <v>243519</v>
+      </c>
+      <c r="H13" s="13">
+        <v>311122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75">
+      <c r="A14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="13">
+        <v>53381</v>
+      </c>
+      <c r="C14" s="13">
+        <v>106139</v>
+      </c>
+      <c r="D14" s="13">
+        <v>77789</v>
+      </c>
+      <c r="E14" s="13">
+        <v>324246</v>
+      </c>
+      <c r="F14" s="13">
+        <v>48071</v>
+      </c>
+      <c r="G14" s="13">
+        <v>337602</v>
+      </c>
+      <c r="H14" s="13">
+        <v>424201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75">
+      <c r="A15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="13">
+        <v>9930</v>
+      </c>
+      <c r="C15" s="13">
+        <v>32715</v>
+      </c>
+      <c r="D15" s="13">
+        <v>24040</v>
+      </c>
+      <c r="E15" s="13">
+        <v>110269</v>
+      </c>
+      <c r="F15" s="13">
+        <v>13661</v>
+      </c>
+      <c r="G15" s="13">
+        <v>115556</v>
+      </c>
+      <c r="H15" s="13">
+        <v>162642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
+      <c r="A16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="12">
+        <v>14893</v>
+      </c>
+      <c r="C16" s="12">
+        <v>40294</v>
+      </c>
+      <c r="D16" s="12">
+        <v>35576</v>
+      </c>
+      <c r="E16" s="12">
+        <v>156282</v>
+      </c>
+      <c r="F16" s="12">
+        <v>28635</v>
+      </c>
+      <c r="G16" s="12">
+        <v>165570</v>
+      </c>
+      <c r="H16" s="12">
+        <v>213652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="14">
+        <v>912060</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1513310</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1058270</v>
+      </c>
+      <c r="E17" s="14">
+        <v>4369280</v>
+      </c>
+      <c r="F17" s="14">
+        <v>630129</v>
+      </c>
+      <c r="G17" s="14">
+        <v>4496275</v>
+      </c>
+      <c r="H17" s="14">
+        <v>5634803</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC0272E-5E94-4D62-9711-A78481758611}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -648,7 +1081,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="20.25" thickBot="1">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -660,7 +1093,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="66">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -686,7 +1119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -712,7 +1145,7 @@
         <v>332072</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -738,7 +1171,7 @@
         <v>524220</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -764,7 +1197,7 @@
         <v>448543</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -790,7 +1223,7 @@
         <v>177762</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
@@ -816,7 +1249,7 @@
         <v>719759</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
@@ -842,7 +1275,7 @@
         <v>1494865</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
@@ -868,7 +1301,7 @@
         <v>234670</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
@@ -894,7 +1327,7 @@
         <v>303493</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
@@ -920,7 +1353,7 @@
         <v>135667</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
@@ -946,7 +1379,7 @@
         <v>152135</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
@@ -972,7 +1405,7 @@
         <v>311122</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
@@ -998,7 +1431,7 @@
         <v>424201</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
@@ -1024,7 +1457,7 @@
         <v>162642</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="11" t="s">
         <v>23</v>
       </c>
@@ -1050,7 +1483,7 @@
         <v>213652</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="30.75" thickBot="1">
       <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
@@ -1076,7 +1509,7 @@
         <v>5634803</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
@@ -1089,7 +1522,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1099,7 +1532,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1109,7 +1542,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="19.5">
       <c r="A23" s="17" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1554,7 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="20.25" thickBot="1">
       <c r="A24" s="18" t="s">
         <v>26</v>
       </c>
@@ -1133,7 +1566,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="66">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
@@ -1159,7 +1592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="8" t="s">
         <v>10</v>
       </c>
@@ -1185,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="11" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="11" t="s">
         <v>12</v>
       </c>
@@ -1237,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="11" t="s">
         <v>13</v>
       </c>
@@ -1263,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="11" t="s">
         <v>14</v>
       </c>
@@ -1289,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="11" t="s">
         <v>15</v>
       </c>
@@ -1315,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="11" t="s">
         <v>16</v>
       </c>
@@ -1341,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="11" t="s">
         <v>17</v>
       </c>
@@ -1367,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="11" t="s">
         <v>18</v>
       </c>
@@ -1393,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="11" t="s">
         <v>19</v>
       </c>
@@ -1419,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="11" t="s">
         <v>20</v>
       </c>
@@ -1445,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="11" t="s">
         <v>21</v>
       </c>
@@ -1471,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="11" t="s">
         <v>22</v>
       </c>
@@ -1497,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="11" t="s">
         <v>23</v>
       </c>
@@ -1523,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="30.75" thickBot="1">
       <c r="A40" s="14" t="s">
         <v>24</v>
       </c>
@@ -1549,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="16" t="s">
         <v>25</v>
       </c>
@@ -1561,7 +1994,7 @@
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1571,7 +2004,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1583,12 +2016,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A41:H41"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A19:H19"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A41:H41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1606,6 +2039,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DCC8FD18B82734DA6D04F28797DC4A6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d6bdc30562d183d288a9000ae6c88d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="27160ef2-b1a0-4e0b-a979-9938934b2ceb" xmlns:ns3="313f4996-b919-4f00-b21c-15f2583e5308" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb1f178905c4cbe79baa28c8245f5f7a" ns2:_="" ns3:_="">
     <xsd:import namespace="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
@@ -1834,15 +2276,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55415A4B-DEE3-487D-9856-B67DBCF2CBCC}">
   <ds:schemaRefs>
@@ -1855,6 +2288,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C923171F-D5BD-4E16-AC37-684330A08399}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4EC8A-7851-4DAA-A5DD-796CDC950495}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1871,12 +2312,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C923171F-D5BD-4E16-AC37-684330A08399}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Back_end_python/db/tics.xlsx
+++ b/Back_end_python/db/tics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenin\Documents\GitHub\Proyecto_python\Back_end_python\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manrique\Desktop\Proyecto Python\Python_censo\Back_end_python\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9F5084-440E-48E9-953A-116198F3A17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60958760-51F1-42AE-B017-EAB9E26863B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="719" xr2:uid="{64AA4D7F-CF1A-4EC7-8C98-80366C114513}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="719" xr2:uid="{64AA4D7F-CF1A-4EC7-8C98-80366C114513}"/>
   </bookViews>
   <sheets>
     <sheet name="TICs" sheetId="26" r:id="rId1"/>
@@ -127,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +180,14 @@
       <color theme="1"/>
       <name val="Museo Sans 100"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -264,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -297,15 +305,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,9 +334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -365,7 +374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -471,7 +480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -613,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF39B40-386A-4DC6-B645-684581DEDFBA}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -637,8 +646,8 @@
     <col min="9" max="9" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.75" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:8" ht="49.5">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -678,7 +687,7 @@
         <v>49158</v>
       </c>
       <c r="E3" s="7">
-        <v>230144</v>
+        <v>49158</v>
       </c>
       <c r="F3" s="7">
         <v>36915</v>
@@ -1054,8 +1063,12 @@
         <v>5634803</v>
       </c>
     </row>
+    <row r="27" spans="1:8">
+      <c r="F27" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1070,28 +1083,28 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="66">
       <c r="A3" s="6" t="s">
@@ -1510,16 +1523,16 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9">
@@ -1543,28 +1556,28 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="19.5">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" thickBot="1">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:9" ht="66">
       <c r="A25" s="6" t="s">
@@ -1983,16 +1996,16 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1"/>
@@ -2016,38 +2029,18 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A41:H41"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A41:H41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="27160ef2-b1a0-4e0b-a979-9938934b2ceb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="313f4996-b919-4f00-b21c-15f2583e5308" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DCC8FD18B82734DA6D04F28797DC4A6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d6bdc30562d183d288a9000ae6c88d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="27160ef2-b1a0-4e0b-a979-9938934b2ceb" xmlns:ns3="313f4996-b919-4f00-b21c-15f2583e5308" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb1f178905c4cbe79baa28c8245f5f7a" ns2:_="" ns3:_="">
     <xsd:import namespace="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
@@ -2276,26 +2269,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55415A4B-DEE3-487D-9856-B67DBCF2CBCC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
-    <ds:schemaRef ds:uri="313f4996-b919-4f00-b21c-15f2583e5308"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C923171F-D5BD-4E16-AC37-684330A08399}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="27160ef2-b1a0-4e0b-a979-9938934b2ceb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="313f4996-b919-4f00-b21c-15f2583e5308" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D4EC8A-7851-4DAA-A5DD-796CDC950495}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2312,4 +2306,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C923171F-D5BD-4E16-AC37-684330A08399}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55415A4B-DEE3-487D-9856-B67DBCF2CBCC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="27160ef2-b1a0-4e0b-a979-9938934b2ceb"/>
+    <ds:schemaRef ds:uri="313f4996-b919-4f00-b21c-15f2583e5308"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>